--- a/biology/Zoologie/Acanthocardia/Acanthocardia.xlsx
+++ b/biology/Zoologie/Acanthocardia/Acanthocardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocardia est un genre de mollusques bivalves de la famille des Cardiidae, appelés bucardes.
 </t>
@@ -511,21 +523,23 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 juin 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 juin 2016) :
 Acanthocardia aculeata (Linnaeus, 1758), bucarde épineuse
 Acanthocardia deshayesii (Payraudeau, 1826)
 Acanthocardia echinata (Linnaeus, 1758), bucarde rouge
 Acanthocardia paucicostata (G. B. Sowerby II, 1834), bucarde peu costulée
 Acanthocardia spinosa (Lightfoot, 1786)
 Acanthocardia tuberculata (Linnaeus, 1758), bucarde tuberculée
-Selon NCBI  (1 juin 2016)[2] :
+Selon NCBI  (1 juin 2016) :
 Acanthocardia aculeata
 Acanthocardia echinata
 Acanthocardia paucicostata
 Acanthocardia tuberculata
-Selon ITIS      (1 juin 2016)[3] :
+Selon ITIS      (1 juin 2016) :
 Acanthocardia aculeata (Linnaeus, 1758)
 Acanthocardia tuberculata (Linnaeus, 1758)
 Sur les autres projets Wikimedia :
